--- a/tesi_camilla/case1_home/Concettuale_caso1_casa.xlsx
+++ b/tesi_camilla/case1_home/Concettuale_caso1_casa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/case1_home/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/case1_home/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FBF71E-7F0B-BE4D-A2D9-CBB59255C40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFD47C-868E-0C41-A878-C67F1934B3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="206">
   <si>
     <t>time_day</t>
   </si>
@@ -802,6 +802,24 @@
   <si>
     <t>year</t>
   </si>
+  <si>
+    <t>capacity_cost</t>
+  </si>
+  <si>
+    <t>period_cost</t>
+  </si>
+  <si>
+    <t>active_techs</t>
+  </si>
+  <si>
+    <t>Active units</t>
+  </si>
+  <si>
+    <t>&gt;=0</t>
+  </si>
+  <si>
+    <t>yearly_costs</t>
+  </si>
 </sst>
 </file>
 
@@ -908,7 +926,7 @@
       <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,6 +1014,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBA816"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1187,6 +1211,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1551,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863A36B-7B9D-4D44-8E2F-FF44385CC5F2}">
-  <dimension ref="A1:CH90"/>
+  <dimension ref="A1:CN96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="AH72" workbookViewId="0">
+      <selection activeCell="AZ82" sqref="AZ82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2642,8 +2668,8 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="31" cm="1">
-        <f t="array" ref="J11">SUM(MMULT(MMULT(I63:K63,TRANSPOSE(I67:K73)),_xlfn.ANCHORARRAY(S57)))</f>
-        <v>2386.6341527700001</v>
+        <f t="array" ref="J11">SUM(MMULT(MMULT(I63:K63,TRANSPOSE(I67:K73)),_xlfn.ANCHORARRAY(S57)))+SUM(_xlfn.ANCHORARRAY(AK96))</f>
+        <v>2611.6341527700001</v>
       </c>
       <c r="K11" s="31" cm="1">
         <f t="array" ref="K11">MMULT(AK38:AX38,TRANSPOSE(AK83:AX83))+BP19*BP21</f>
@@ -2651,7 +2677,7 @@
       </c>
       <c r="L11" s="32">
         <f>J11*SUM(J81:J90)+K11</f>
-        <v>20571.616420323739</v>
+        <v>22450.67010325535</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -4985,25 +5011,25 @@
       </c>
       <c r="BZ24" s="13"/>
       <c r="CA24" s="20">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="CB24" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CC24" s="13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CD24" s="13">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="CE24" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF24" s="21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CG24">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:85" x14ac:dyDescent="0.2">
@@ -6719,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ39" s="16">
         <v>58</v>
@@ -7747,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
@@ -7908,7 +7934,7 @@
       <c r="CE49" s="13"/>
       <c r="CF49" s="13"/>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
@@ -8081,7 +8107,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>1</v>
       </c>
@@ -8249,7 +8275,7 @@
         <v>5.5733333333333341</v>
       </c>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -8399,7 +8425,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -8566,7 +8592,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -8718,7 +8744,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>140</v>
       </c>
@@ -8826,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.2">
       <c r="S56" s="23" t="s">
         <v>69</v>
       </c>
@@ -8874,7 +8900,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
@@ -8982,7 +9008,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>1</v>
       </c>
@@ -9104,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
@@ -9224,7 +9250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -9323,7 +9349,7 @@
       </c>
       <c r="BL60" s="13"/>
     </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
@@ -9432,8 +9458,11 @@
         <v>50</v>
       </c>
       <c r="BL61" s="13"/>
+      <c r="CA61" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
@@ -9555,10 +9584,54 @@
         <v>50</v>
       </c>
       <c r="BL62" s="13"/>
-      <c r="BZ62" s="13"/>
-      <c r="CA62" s="13"/>
+      <c r="BZ62" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="CA62" s="13" cm="1">
+        <f t="array" ref="CA62:CN62">AK93:AX93*10000-_xlfn.ANCHORARRAY(AK87)</f>
+        <v>-9</v>
+      </c>
+      <c r="CB62">
+        <v>-10.7</v>
+      </c>
+      <c r="CC62">
+        <v>-6</v>
+      </c>
+      <c r="CD62">
+        <v>-100</v>
+      </c>
+      <c r="CE62">
+        <v>0</v>
+      </c>
+      <c r="CF62">
+        <v>-11</v>
+      </c>
+      <c r="CG62">
+        <v>-58</v>
+      </c>
+      <c r="CH62">
+        <v>-3.5</v>
+      </c>
+      <c r="CI62">
+        <v>-22</v>
+      </c>
+      <c r="CJ62">
+        <v>-60</v>
+      </c>
+      <c r="CK62">
+        <v>-100</v>
+      </c>
+      <c r="CL62">
+        <v>-160</v>
+      </c>
+      <c r="CM62">
+        <v>-18</v>
+      </c>
+      <c r="CN62">
+        <v>-6.9666666666666668</v>
+      </c>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>140</v>
       </c>
@@ -9654,10 +9727,54 @@
       <c r="AW63" s="13"/>
       <c r="AX63" s="13"/>
       <c r="BL63" s="13"/>
-      <c r="BZ63" s="13"/>
-      <c r="CA63" s="13"/>
+      <c r="BZ63" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="CA63" s="13" cm="1">
+        <f t="array" ref="CA63:CN63">_xlfn.ANCHORARRAY(AK87)-AK93:AX93</f>
+        <v>9</v>
+      </c>
+      <c r="CB63">
+        <v>10.7</v>
+      </c>
+      <c r="CC63">
+        <v>6</v>
+      </c>
+      <c r="CD63">
+        <v>100</v>
+      </c>
+      <c r="CE63">
+        <v>0</v>
+      </c>
+      <c r="CF63">
+        <v>11</v>
+      </c>
+      <c r="CG63">
+        <v>58</v>
+      </c>
+      <c r="CH63">
+        <v>3.5</v>
+      </c>
+      <c r="CI63">
+        <v>22</v>
+      </c>
+      <c r="CJ63">
+        <v>60</v>
+      </c>
+      <c r="CK63">
+        <v>100</v>
+      </c>
+      <c r="CL63">
+        <v>160</v>
+      </c>
+      <c r="CM63">
+        <v>18</v>
+      </c>
+      <c r="CN63">
+        <v>6.9666666666666668</v>
+      </c>
     </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:92" x14ac:dyDescent="0.2">
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
       <c r="AK64" s="11" t="s">
@@ -9710,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ65" s="34">
         <v>58</v>
@@ -9778,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ66" s="34">
         <v>58</v>
@@ -9852,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ67" s="34">
         <v>58</v>
@@ -9927,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ68" s="34">
         <v>58</v>
@@ -10001,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="AP69" s="34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ69" s="34">
         <v>58</v>
@@ -10081,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="AP70" s="34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ70" s="34">
         <v>58</v>
@@ -10161,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="AP71" s="34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ71" s="34">
         <v>58</v>
@@ -11132,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="AB87" s="34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AC87" s="34">
         <v>58</v>
@@ -11172,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="AP87" s="35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ87" s="41">
         <v>58</v>
@@ -11223,6 +11340,9 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
+      <c r="AK88" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
@@ -11248,6 +11368,48 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
+      <c r="AK89" s="66">
+        <v>25</v>
+      </c>
+      <c r="AL89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AP89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AR89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AT89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AU89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AV89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AW89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AX89" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
@@ -11273,6 +11435,152 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
+      <c r="AK90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK91" s="66">
+        <v>200</v>
+      </c>
+      <c r="AL91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="66">
+        <v>170</v>
+      </c>
+      <c r="AR91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AS91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AT91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AU91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AV91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AW91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AX91" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AP93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AS93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AT93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AU93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AV93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AW93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX93" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK96" s="34" cm="1">
+        <f t="array" ref="AK96:AX96">_xlfn.ANCHORARRAY(AK87)*AK89:AX89+AK91:AX91*AK93:AX93</f>
+        <v>225</v>
+      </c>
+      <c r="AL96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AR96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AT96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AU96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AV96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AW96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AX96" s="34">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/tesi_camilla/case1_home/Concettuale_caso1_casa.xlsx
+++ b/tesi_camilla/case1_home/Concettuale_caso1_casa.xlsx
@@ -8,92 +8,170 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/case1_home/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFD47C-868E-0C41-A878-C67F1934B3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4619B8D8-7C63-D545-9F7C-1F17150C0795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
   </bookViews>
   <sheets>
     <sheet name="home_buccinasco" sheetId="19" r:id="rId1"/>
-    <sheet name="time_accurate" sheetId="21" r:id="rId2"/>
+    <sheet name="Test_results" sheetId="22" r:id="rId2"/>
+    <sheet name="time_accurate" sheetId="21" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
     <definedName name="OpenSolver_LinearityCheck" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="1" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">home_buccinasco!$AZ$10:$BF$17,home_buccinasco!$S$49:$AI$55,home_buccinasco!$BP$19,home_buccinasco!$CA$10:$CG$17,home_buccinasco!$AK$83:$AX$83</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Test_results!$AZ$10:$BB$17,Test_results!$S$49:$AI$55,Test_results!$BK$19,Test_results!$BP$10:$BP$17,Test_results!$AK$83:$AX$83</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">home_buccinasco!$S$49:$U$55</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Test_results!$S$49:$U$55</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">home_buccinasco!$CA$35:$CC$35</definedName>
+    <definedName name="solver_lhs10" localSheetId="1" hidden="1">Test_results!$BP$35:$BP$35</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">home_buccinasco!$CA$37:$CG$39</definedName>
+    <definedName name="solver_lhs11" localSheetId="1" hidden="1">Test_results!$BP$37:$BP$39</definedName>
     <definedName name="solver_lhs12" localSheetId="0" hidden="1">home_buccinasco!$CA$41:$CF$42</definedName>
+    <definedName name="solver_lhs12" localSheetId="1" hidden="1">Test_results!$BP$41:$BP$42</definedName>
     <definedName name="solver_lhs13" localSheetId="0" hidden="1">home_buccinasco!$CA$44:$CF$45</definedName>
+    <definedName name="solver_lhs13" localSheetId="1" hidden="1">Test_results!$BP$44:$BP$45</definedName>
     <definedName name="solver_lhs14" localSheetId="0" hidden="1">home_buccinasco!$CA$47:$CG$48</definedName>
+    <definedName name="solver_lhs14" localSheetId="1" hidden="1">Test_results!$BP$47:$BP$48</definedName>
     <definedName name="solver_lhs15" localSheetId="0" hidden="1">home_buccinasco!$CA$50:$CG$51</definedName>
+    <definedName name="solver_lhs15" localSheetId="1" hidden="1">Test_results!$BP$50:$BP$51</definedName>
     <definedName name="solver_lhs16" localSheetId="0" hidden="1">home_buccinasco!$CA$53:$CF$53</definedName>
+    <definedName name="solver_lhs16" localSheetId="1" hidden="1">Test_results!$BP$53:$BP$53</definedName>
     <definedName name="solver_lhs17" localSheetId="0" hidden="1">home_buccinasco!$CA$55:$CF$55</definedName>
+    <definedName name="solver_lhs17" localSheetId="1" hidden="1">Test_results!$BP$55:$BP$55</definedName>
     <definedName name="solver_lhs18" localSheetId="0" hidden="1">home_buccinasco!$CA$58:$CG$59</definedName>
+    <definedName name="solver_lhs18" localSheetId="1" hidden="1">Test_results!$BP$58:$BP$59</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">home_buccinasco!$W$49:$X$55</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Test_results!$W$49:$X$55</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">home_buccinasco!$Z$49:$AI$55</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Test_results!$Z$49:$AI$55</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">home_buccinasco!$AK$83:$AX$83</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Test_results!$AK$83:$AX$83</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">home_buccinasco!$BP$19</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Test_results!$BK$19</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">home_buccinasco!$BS$10:$BY$17</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">Test_results!$BN$10:$BN$17</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">home_buccinasco!$BS$19:$BY$26</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">Test_results!$BN$19:$BN$26</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">home_buccinasco!$CA$10:$CG$17</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">Test_results!$BP$10:$BP$17</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">home_buccinasco!$CA$19:$CG$30</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">Test_results!$BP$19:$BP$30</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">18</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">18</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">home_buccinasco!$L$11</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Test_results!$L$11</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel14" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel14" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel15" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel15" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel16" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel16" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel17" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel17" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel18" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel18" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs12" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs12" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs13" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs13" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs14" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs14" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs15" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs15" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs16" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs16" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs17" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs17" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs18" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs18" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">binary</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">binary</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs9" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -145,6 +223,33 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={54D1ACA5-ADF4-BA43-A37D-F9DF329F1CE8}</author>
+    <author>tc={C00B4336-DB6D-D348-B49D-BAFB45F30A8A}</author>
+  </authors>
+  <commentList>
+    <comment ref="BP36" authorId="0" shapeId="0" xr:uid="{54D1ACA5-ADF4-BA43-A37D-F9DF329F1CE8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Su pyesm è ore x tech perchè non c’è un filtro per le 3 tech interessate</t>
+      </text>
+    </comment>
+    <comment ref="AU39" authorId="1" shapeId="0" xr:uid="{C00B4336-DB6D-D348-B49D-BAFB45F30A8A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Usato come limite per SOC min/max</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={1C069D8F-6608-664A-B8D9-BE731A3D89FD}</author>
   </authors>
   <commentList>
@@ -183,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="207">
   <si>
     <t>time_day</t>
   </si>
@@ -820,17 +925,21 @@
   <si>
     <t>yearly_costs</t>
   </si>
+  <si>
+    <t>uX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\-#,##0.00;\-"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00000;\-#,##0.00000;\-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -924,6 +1033,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1142,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1213,6 +1328,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1569,6 +1685,17 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="BP36" dT="2024-07-10T08:54:39.78" personId="{78B3468B-D9B6-EA45-B5B8-0247D1E1A105}" id="{54D1ACA5-ADF4-BA43-A37D-F9DF329F1CE8}">
+    <text>Su pyesm è ore x tech perchè non c’è un filtro per le 3 tech interessate</text>
+  </threadedComment>
+  <threadedComment ref="AU39" dT="2024-07-02T08:11:50.89" personId="{78B3468B-D9B6-EA45-B5B8-0247D1E1A105}" id="{C00B4336-DB6D-D348-B49D-BAFB45F30A8A}">
+    <text>Usato come limite per SOC min/max</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="AU39" dT="2024-07-02T08:11:50.89" personId="{78B3468B-D9B6-EA45-B5B8-0247D1E1A105}" id="{1C069D8F-6608-664A-B8D9-BE731A3D89FD}">
     <text>Usato come limite per SOC min/max</text>
   </threadedComment>
@@ -1579,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863A36B-7B9D-4D44-8E2F-FF44385CC5F2}">
   <dimension ref="A1:CN96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH72" workbookViewId="0">
-      <selection activeCell="AZ82" sqref="AZ82"/>
+    <sheetView topLeftCell="AT32" workbookViewId="0">
+      <selection activeCell="BB42" sqref="BB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2669,7 +2796,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="31" cm="1">
         <f t="array" ref="J11">SUM(MMULT(MMULT(I63:K63,TRANSPOSE(I67:K73)),_xlfn.ANCHORARRAY(S57)))+SUM(_xlfn.ANCHORARRAY(AK96))</f>
-        <v>2611.6341527700001</v>
+        <v>3216.3838865449998</v>
       </c>
       <c r="K11" s="31" cm="1">
         <f t="array" ref="K11">MMULT(AK38:AX38,TRANSPOSE(AK83:AX83))+BP19*BP21</f>
@@ -2677,7 +2804,7 @@
       </c>
       <c r="L11" s="32">
         <f>J11*SUM(J81:J90)+K11</f>
-        <v>22450.67010325535</v>
+        <v>27501.146612152355</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -6523,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="14">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="U37" s="14">
         <v>-0.08</v>
@@ -6550,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="14">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD37" s="14">
         <v>0</v>
@@ -6931,7 +7058,8 @@
         <v>1</v>
       </c>
       <c r="BB41" s="44">
-        <v>0.9</v>
+        <f>1-0.014</f>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BD41" s="13"/>
       <c r="BE41" s="13"/>
@@ -7040,7 +7168,7 @@
         <v>3.6666667000000004</v>
       </c>
       <c r="AX42" s="43">
-        <v>2.2222222500000002</v>
+        <v>2.4345679316666664</v>
       </c>
       <c r="AY42" s="13"/>
       <c r="AZ42" s="45">
@@ -7048,7 +7176,7 @@
       </c>
       <c r="BA42" s="46">
         <f>BA41*$BB$41</f>
-        <v>0.9</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BD42" s="13"/>
       <c r="BE42" s="13"/>
@@ -7083,19 +7211,19 @@
         <v>4.4278641666666667</v>
       </c>
       <c r="CB42" s="13">
-        <v>4.6747777500000005</v>
+        <v>4.4624320683333334</v>
       </c>
       <c r="CC42" s="13">
-        <v>6.8969999749999999</v>
+        <v>6.4965160193766671</v>
       </c>
       <c r="CD42" s="13">
-        <v>6.8969999775000002</v>
+        <v>6.5021227951053939</v>
       </c>
       <c r="CE42" s="13">
-        <v>6.8969999797500003</v>
+        <v>6.5076510759739179</v>
       </c>
       <c r="CF42" s="13">
-        <v>6.8969999817750001</v>
+        <v>6.5131019609102836</v>
       </c>
     </row>
     <row r="43" spans="1:85" x14ac:dyDescent="0.2">
@@ -7162,7 +7290,7 @@
         <v>1.8000000000000007</v>
       </c>
       <c r="AX43" s="43">
-        <v>2.5000000292152436E-8</v>
+        <v>0.40048398062333312</v>
       </c>
       <c r="AY43" s="13"/>
       <c r="AZ43" s="45">
@@ -7170,7 +7298,7 @@
       </c>
       <c r="BA43" s="46">
         <f>BA42*$BB$41</f>
-        <v>0.81</v>
+        <v>0.97219599999999995</v>
       </c>
       <c r="BD43" s="13"/>
       <c r="BE43" s="13"/>
@@ -7274,7 +7402,7 @@
         <v>1.8000000000000007</v>
       </c>
       <c r="AX44" s="43">
-        <v>2.2500000085301508E-8</v>
+        <v>0.39487720489460632</v>
       </c>
       <c r="AY44" s="13"/>
       <c r="AZ44" s="45">
@@ -7282,7 +7410,7 @@
       </c>
       <c r="BA44" s="46">
         <f>BA43*$BB$41</f>
-        <v>0.72900000000000009</v>
+        <v>0.95858525599999989</v>
       </c>
       <c r="BD44" s="13"/>
       <c r="BE44" s="13"/>
@@ -7396,7 +7524,7 @@
         <v>1.8000000000000007</v>
       </c>
       <c r="AX45" s="43">
-        <v>2.0249999899135673E-8</v>
+        <v>0.3893489240260819</v>
       </c>
       <c r="AY45" s="13"/>
       <c r="AZ45" s="45">
@@ -7404,7 +7532,7 @@
       </c>
       <c r="BA45" s="46">
         <f>BA44*$BB$41</f>
-        <v>0.65610000000000013</v>
+        <v>0.94516506241599985</v>
       </c>
       <c r="BD45" s="13"/>
       <c r="BE45" s="13"/>
@@ -7438,19 +7566,19 @@
         <v>2.4691358333333335</v>
       </c>
       <c r="CB45" s="13">
-        <v>2.2222222500000002</v>
+        <v>2.4345679316666664</v>
       </c>
       <c r="CC45" s="13">
-        <v>2.5000000292152436E-8</v>
+        <v>0.40048398062333312</v>
       </c>
       <c r="CD45" s="13">
-        <v>2.2500000085301508E-8</v>
+        <v>0.39487720489460632</v>
       </c>
       <c r="CE45" s="13">
-        <v>2.0249999899135673E-8</v>
+        <v>0.3893489240260819</v>
       </c>
       <c r="CF45" s="13">
-        <v>1.8225000175675632E-8</v>
+        <v>0.38389803908971709</v>
       </c>
     </row>
     <row r="46" spans="1:85" x14ac:dyDescent="0.2">
@@ -7517,7 +7645,7 @@
         <v>1.8000000000000007</v>
       </c>
       <c r="AX46" s="43">
-        <v>1.8225000175675632E-8</v>
+        <v>0.38389803908971709</v>
       </c>
       <c r="AY46" s="13"/>
       <c r="AZ46" s="45">
@@ -7525,7 +7653,7 @@
       </c>
       <c r="BA46" s="46">
         <f>BA45*$BB$41</f>
-        <v>0.59049000000000018</v>
+        <v>0.93193275154217581</v>
       </c>
       <c r="BD46" s="13"/>
       <c r="BE46" s="13"/>
@@ -8060,7 +8188,7 @@
       <c r="BG50" s="13"/>
       <c r="BH50" s="12">
         <f>BH49*$BB$41</f>
-        <v>0.9</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BI50" s="12">
         <v>1</v>
@@ -8233,11 +8361,11 @@
       <c r="BG51" s="13"/>
       <c r="BH51" s="12">
         <f>BH50*$BB$41</f>
-        <v>0.81</v>
+        <v>0.97219599999999995</v>
       </c>
       <c r="BI51" s="12">
         <f>BI50*$BB$41</f>
-        <v>0.9</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BJ51" s="12">
         <v>1</v>
@@ -8401,15 +8529,15 @@
       <c r="BG52" s="13"/>
       <c r="BH52" s="12">
         <f>BH51*$BB$41</f>
-        <v>0.72900000000000009</v>
+        <v>0.95858525599999989</v>
       </c>
       <c r="BI52" s="12">
         <f>BI51*$BB$41</f>
-        <v>0.81</v>
+        <v>0.97219599999999995</v>
       </c>
       <c r="BJ52" s="12">
         <f>BJ51*$BB$41</f>
-        <v>0.9</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BK52" s="12">
         <v>1</v>
@@ -8551,19 +8679,19 @@
       <c r="BG53" s="13"/>
       <c r="BH53" s="12">
         <f>BH52*$BB$41</f>
-        <v>0.65610000000000013</v>
+        <v>0.94516506241599985</v>
       </c>
       <c r="BI53" s="12">
         <f>BI52*$BB$41</f>
-        <v>0.72900000000000009</v>
+        <v>0.95858525599999989</v>
       </c>
       <c r="BJ53" s="12">
         <f>BJ52*$BB$41</f>
-        <v>0.81</v>
+        <v>0.97219599999999995</v>
       </c>
       <c r="BK53" s="12">
         <f>BK52*$BB$41</f>
-        <v>0.9</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL53" s="12">
         <v>1</v>
@@ -8718,23 +8846,23 @@
       <c r="BG54" s="13"/>
       <c r="BH54" s="12">
         <f>BH53*$BB$41</f>
-        <v>0.59049000000000018</v>
+        <v>0.93193275154217581</v>
       </c>
       <c r="BI54" s="12">
         <f>BI53*$BB$41</f>
-        <v>0.65610000000000013</v>
+        <v>0.94516506241599985</v>
       </c>
       <c r="BJ54" s="12">
         <f>BJ53*$BB$41</f>
-        <v>0.72900000000000009</v>
+        <v>0.95858525599999989</v>
       </c>
       <c r="BK54" s="12">
         <f>BK53*$BB$41</f>
-        <v>0.81</v>
+        <v>0.97219599999999995</v>
       </c>
       <c r="BL54" s="12">
         <f>BL53*$BB$41</f>
-        <v>0.9</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BM54" s="12">
         <v>1</v>
@@ -8912,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="33">
-        <v>0.89293896000000006</v>
+        <v>1.3394084399999999</v>
       </c>
       <c r="U57" s="33">
         <v>0</v>
@@ -8939,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="33">
-        <v>3.4265351999999999E-2</v>
+        <v>6.2819812000000003E-2</v>
       </c>
       <c r="AD57" s="33">
         <v>0</v>
@@ -9019,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="33">
-        <v>0.74777778000000006</v>
+        <v>1.12166667</v>
       </c>
       <c r="U58" s="33">
         <v>0</v>
@@ -9046,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="33">
-        <v>6.8530700999999999E-2</v>
+        <v>0.12563961850000002</v>
       </c>
       <c r="AD58" s="33">
         <v>0</v>
@@ -9141,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="33">
-        <v>1.2400000000000002</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="U59" s="33">
         <v>0</v>
@@ -9168,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="33">
-        <v>0.137061405</v>
+        <v>0.2512792425</v>
       </c>
       <c r="AD59" s="33">
         <v>0</v>
@@ -9261,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="33">
-        <v>1.1900000000000002</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="U60" s="33">
         <v>0</v>
@@ -9288,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="33">
-        <v>3.4265351999999999E-2</v>
+        <v>6.2819812000000003E-2</v>
       </c>
       <c r="AD60" s="33">
         <v>0</v>
@@ -9371,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="33">
-        <v>0.55000000000000004</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="U61" s="33">
         <v>0</v>
@@ -9398,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="33">
-        <v>6.8530700999999999E-2</v>
+        <v>0.12563961850000002</v>
       </c>
       <c r="AD61" s="33">
         <v>0</v>
@@ -9495,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="33">
-        <v>1.21</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="U62" s="33">
         <v>0</v>
@@ -9522,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="33">
-        <v>0.137061405</v>
+        <v>0.2512792425</v>
       </c>
       <c r="AD62" s="33">
         <v>0</v>
@@ -9665,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>1.2400000000000002</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -9692,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.137061405</v>
+        <v>0.2512792425</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -11591,11 +11719,7604 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B8D066-8047-2845-A11F-8A370D599C4E}">
+  <dimension ref="A1:BV96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O23" zoomScale="75" workbookViewId="0">
+      <selection activeCell="BA10" sqref="BA10:BB17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="27"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="35" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.33203125" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" customWidth="1"/>
+    <col min="51" max="51" width="4.83203125" customWidth="1"/>
+    <col min="55" max="55" width="4.5" customWidth="1"/>
+    <col min="57" max="57" width="15.5" customWidth="1"/>
+    <col min="65" max="65" width="5.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="AZ1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BN1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="AZ2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BN2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BP3" s="3"/>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="AK4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AW4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX4" s="39"/>
+    </row>
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y7" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE7" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF7" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG7" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR7" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS7" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT7" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU7" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX7" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BM8" s="7"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN9" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP9" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="62">
+        <v>0.01</v>
+      </c>
+      <c r="W10" s="62">
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="X10" s="62">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="62">
+        <f>1/0.8</f>
+        <v>1.25</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="22">
+        <v>0.37250678608375648</v>
+      </c>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="14">
+        <v>0.37698161822291898</v>
+      </c>
+      <c r="BK10" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="34" cm="1">
+        <f t="array" ref="BL10:BL17">1+(BK10:BK17*BK19)</f>
+        <v>1</v>
+      </c>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="68" cm="1">
+        <f t="array" ref="BN10:BN17">AZ10:AZ17-MMULT(S10:AI17,TRANSPOSE(S49:AI49))-BD10:BD17*_xlfn.ANCHORARRAY(BL10)-BP10:BP17</f>
+        <v>-5.5511151231257827E-17</v>
+      </c>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="31" t="e" cm="1">
+        <f t="array" ref="J11">SUM(MMULT(MMULT(I63:K63,TRANSPOSE(I67:K73)),_xlfn.ANCHORARRAY(S57)))+SUM(_xlfn.ANCHORARRAY(AK96))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="31" cm="1">
+        <f t="array" ref="K11">MMULT(AK38:AX38,TRANSPOSE(AK83:AX83))+BK19*BK21</f>
+        <v>640</v>
+      </c>
+      <c r="L11" s="32" t="e">
+        <f>J11*SUM(J81:J90)+K11</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="22">
+        <v>0.26138472766841492</v>
+      </c>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="14">
+        <v>0.26138211382113818</v>
+      </c>
+      <c r="BK11" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="34">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="20">
+        <v>5.5511151231257827E-17</v>
+      </c>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="BL12" s="34">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="64">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="34">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="13"/>
+      <c r="BN13" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="13"/>
+      <c r="BP13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="62">
+        <f>1/0.4/10.944</f>
+        <v>0.22843567251461985</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="34">
+        <v>1</v>
+      </c>
+      <c r="BM14" s="13"/>
+      <c r="BN14" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="13"/>
+      <c r="BP14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0</v>
+      </c>
+      <c r="W15" s="14">
+        <v>0</v>
+      </c>
+      <c r="X15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="51">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AI15" s="51">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="34">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="13"/>
+      <c r="BN15" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="13"/>
+      <c r="BP15" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="34">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="13"/>
+      <c r="BN16" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="13"/>
+      <c r="BP16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="14">
+        <v>0</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0</v>
+      </c>
+      <c r="W17" s="14">
+        <v>0</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="34">
+        <v>1</v>
+      </c>
+      <c r="BM17" s="13"/>
+      <c r="BN17" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="13"/>
+      <c r="BP17" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM18" s="13"/>
+      <c r="BN18" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO18" s="13"/>
+      <c r="BP18" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="14">
+        <v>1</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AK19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="14">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="14">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="55">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="22">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="13"/>
+      <c r="BN19" s="17" cm="1">
+        <f t="array" ref="BN19:BN26">TRANSPOSE(MMULT(S49:AI49,J19:Q35))-AZ10:AZ17</f>
+        <v>0</v>
+      </c>
+      <c r="BO19" s="13"/>
+      <c r="BP19" s="17" cm="1">
+        <f t="array" ref="BP19:BP30">TRANSPOSE(AK65:AV65-AK73:AV73)</f>
+        <v>8.0010000000000026E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AK20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="14">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="13"/>
+      <c r="BH20" s="55">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="13"/>
+      <c r="BK20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM20" s="13"/>
+      <c r="BN20" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="13"/>
+      <c r="BP20" s="20">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AK21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="BE21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="13"/>
+      <c r="BH21" s="55">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="13"/>
+      <c r="BJ21" s="13"/>
+      <c r="BK21" s="13">
+        <v>10000</v>
+      </c>
+      <c r="BM21" s="13"/>
+      <c r="BN21" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="13"/>
+      <c r="BP21" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="14">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AK22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="14">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="14">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="13"/>
+      <c r="BH22" s="55">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
+      <c r="BM22" s="6"/>
+      <c r="BN22" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="13"/>
+      <c r="BP22" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>1</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AK23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="55">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="6"/>
+      <c r="BN23" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="13"/>
+      <c r="BP23" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AK24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="55">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="6"/>
+      <c r="BN24" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="13"/>
+      <c r="BP24" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>1</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AK25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="12">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="55">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="6"/>
+      <c r="BN25" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="13"/>
+      <c r="BP25" s="20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
+        <v>1</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AK26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="55">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="6"/>
+      <c r="BN26" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="13"/>
+      <c r="BP26" s="20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14">
+        <v>1</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AK27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="55">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="6"/>
+      <c r="BO27" s="13"/>
+      <c r="BP27" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AK28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="55">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="6"/>
+      <c r="BO28" s="13"/>
+      <c r="BP28" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14">
+        <v>1</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AK29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="55">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="6"/>
+      <c r="BO29" s="13"/>
+      <c r="BP29" s="20">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AK30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="14">
+        <v>-1</v>
+      </c>
+      <c r="BH30" s="55">
+        <v>-1</v>
+      </c>
+      <c r="BM30" s="13"/>
+      <c r="BO30" s="13"/>
+      <c r="BP30" s="20">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AK31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="55">
+        <v>-1</v>
+      </c>
+      <c r="BM31" s="13"/>
+      <c r="BO31" s="13"/>
+      <c r="BP31" s="20"/>
+    </row>
+    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="14">
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="14">
+        <v>0</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AK32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="55">
+        <v>-1</v>
+      </c>
+      <c r="BM32" s="13"/>
+      <c r="BO32" s="13"/>
+      <c r="BP32" s="13"/>
+    </row>
+    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="14">
+        <v>0</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="14">
+        <v>1</v>
+      </c>
+      <c r="P33" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AK33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="55">
+        <v>1</v>
+      </c>
+      <c r="BM33" s="13"/>
+      <c r="BO33" s="13"/>
+      <c r="BP33" s="13"/>
+    </row>
+    <row r="34" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="14">
+        <v>0</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="14">
+        <v>0</v>
+      </c>
+      <c r="P34" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AK34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AW34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="55">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="13"/>
+      <c r="BO34" s="13"/>
+      <c r="BP34" s="13"/>
+    </row>
+    <row r="35" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="14">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AK35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AW35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH35" s="55">
+        <v>0</v>
+      </c>
+      <c r="BM35" s="13"/>
+      <c r="BO35" s="13"/>
+      <c r="BP35" s="13"/>
+    </row>
+    <row r="36" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="13"/>
+      <c r="BP36" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="14">
+        <v>0</v>
+      </c>
+      <c r="T37" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="U37" s="14">
+        <v>-0.08</v>
+      </c>
+      <c r="V37" s="14">
+        <v>0</v>
+      </c>
+      <c r="W37" s="14">
+        <v>0</v>
+      </c>
+      <c r="X37" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="AD37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AF37" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AG37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="13"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="13"/>
+      <c r="AQ37" s="13"/>
+      <c r="AR37" s="13"/>
+      <c r="AS37" s="13"/>
+      <c r="AT37" s="13"/>
+      <c r="AU37" s="13"/>
+      <c r="AV37" s="13"/>
+      <c r="BO37" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP37" s="13" cm="1">
+        <f t="array" ref="BP37:BP39">TRANSPOSE(MMULT(S49:AI49,BD19:BF35))</f>
+        <v>0.37250678608375648</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="AJ38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK38" s="16">
+        <v>2000</v>
+      </c>
+      <c r="AL38" s="16">
+        <v>100</v>
+      </c>
+      <c r="AM38" s="16">
+        <v>3000</v>
+      </c>
+      <c r="AN38" s="60">
+        <v>500</v>
+      </c>
+      <c r="AO38" s="16">
+        <v>250</v>
+      </c>
+      <c r="AP38" s="16">
+        <v>150</v>
+      </c>
+      <c r="AQ38" s="16">
+        <v>60</v>
+      </c>
+      <c r="AR38" s="16">
+        <v>1000</v>
+      </c>
+      <c r="AS38" s="16">
+        <v>10000000</v>
+      </c>
+      <c r="AT38" s="16">
+        <v>10000000</v>
+      </c>
+      <c r="AU38" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="16">
+        <f>30000/150</f>
+        <v>200</v>
+      </c>
+      <c r="AW38" s="16">
+        <v>2000</v>
+      </c>
+      <c r="AX38" s="16">
+        <v>200</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP38" s="13">
+        <v>0.26138472766841492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="AJ39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK39" s="16">
+        <v>9</v>
+      </c>
+      <c r="AL39" s="16">
+        <v>9</v>
+      </c>
+      <c r="AM39" s="16">
+        <v>6</v>
+      </c>
+      <c r="AN39" s="60">
+        <v>100</v>
+      </c>
+      <c r="AO39" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="16">
+        <v>5</v>
+      </c>
+      <c r="AQ39" s="16">
+        <v>58</v>
+      </c>
+      <c r="AR39" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="AS39" s="16">
+        <v>22</v>
+      </c>
+      <c r="AT39" s="16">
+        <v>60</v>
+      </c>
+      <c r="AU39" s="16">
+        <v>100</v>
+      </c>
+      <c r="AV39" s="16">
+        <v>160</v>
+      </c>
+      <c r="AW39" s="16">
+        <v>18</v>
+      </c>
+      <c r="AX39" s="61">
+        <f>200*4.18/3600*(45-15)</f>
+        <v>6.9666666666666668</v>
+      </c>
+      <c r="BO39" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP39" s="13">
+        <v>0.37250678608375648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AW40" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX40" s="23"/>
+      <c r="AY40" s="13"/>
+      <c r="AZ40" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC40" s="13"/>
+      <c r="BD40" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP40" s="13"/>
+    </row>
+    <row r="41" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AL41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="AV41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="42" t="e" cm="1">
+        <f t="array" ref="AW41:AW46">AO57:AO62*AZ41:AZ46-MMULT(BD41:BI46,V49:V54)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX41" s="42" t="e" cm="1">
+        <f t="array" ref="AX41:AX46">AP57:AP62*BA41:BA46-MMULT(BD49:BI54,Y49:Y54)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY41" s="13"/>
+      <c r="AZ41" s="45">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="45">
+        <v>1</v>
+      </c>
+      <c r="BB41" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="BC41" s="13"/>
+      <c r="BD41" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI41" s="12">
+        <v>0</v>
+      </c>
+      <c r="BO41" s="13"/>
+      <c r="BP41" s="13"/>
+    </row>
+    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AL42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="AV42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW42" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX42" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY42" s="13"/>
+      <c r="AZ42" s="45">
+        <v>1</v>
+      </c>
+      <c r="BA42" s="46">
+        <f>BA41*$BB$41</f>
+        <v>0.9</v>
+      </c>
+      <c r="BC42" s="13"/>
+      <c r="BD42" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE42" s="12">
+        <v>1</v>
+      </c>
+      <c r="BF42" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG42" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH42" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI42" s="12">
+        <v>0</v>
+      </c>
+      <c r="BO42" s="13"/>
+      <c r="BP42" s="13"/>
+    </row>
+    <row r="43" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AL43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="AV43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW43" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX43" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY43" s="13"/>
+      <c r="AZ43" s="45">
+        <v>1</v>
+      </c>
+      <c r="BA43" s="46">
+        <f>BA42*$BB$41</f>
+        <v>0.81</v>
+      </c>
+      <c r="BC43" s="13"/>
+      <c r="BD43" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE43" s="12">
+        <v>1</v>
+      </c>
+      <c r="BF43" s="12">
+        <v>1</v>
+      </c>
+      <c r="BG43" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH43" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI43" s="12">
+        <v>0</v>
+      </c>
+      <c r="BO43" s="13"/>
+      <c r="BP43" s="13"/>
+    </row>
+    <row r="44" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AL44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="AV44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW44" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX44" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY44" s="13"/>
+      <c r="AZ44" s="45">
+        <v>1</v>
+      </c>
+      <c r="BA44" s="46">
+        <f>BA43*$BB$41</f>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="BC44" s="13"/>
+      <c r="BD44" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE44" s="12">
+        <v>1</v>
+      </c>
+      <c r="BF44" s="12">
+        <v>1</v>
+      </c>
+      <c r="BG44" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH44" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI44" s="12">
+        <v>0</v>
+      </c>
+      <c r="BP44" s="13"/>
+    </row>
+    <row r="45" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="AL45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="AV45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW45" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX45" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY45" s="13"/>
+      <c r="AZ45" s="45">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="46">
+        <f>BA44*$BB$41</f>
+        <v>0.65610000000000013</v>
+      </c>
+      <c r="BC45" s="13"/>
+      <c r="BD45" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE45" s="12">
+        <v>1</v>
+      </c>
+      <c r="BF45" s="12">
+        <v>1</v>
+      </c>
+      <c r="BG45" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH45" s="12">
+        <v>1</v>
+      </c>
+      <c r="BI45" s="12">
+        <v>0</v>
+      </c>
+      <c r="BP45" s="13"/>
+    </row>
+    <row r="46" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AL46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU46" s="14">
+        <v>1.99</v>
+      </c>
+      <c r="AV46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW46" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX46" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY46" s="13"/>
+      <c r="AZ46" s="45">
+        <v>1</v>
+      </c>
+      <c r="BA46" s="46">
+        <f>BA45*$BB$41</f>
+        <v>0.59049000000000018</v>
+      </c>
+      <c r="BC46" s="13"/>
+      <c r="BD46" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE46" s="12">
+        <v>1</v>
+      </c>
+      <c r="BF46" s="12">
+        <v>1</v>
+      </c>
+      <c r="BG46" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH46" s="12">
+        <v>1</v>
+      </c>
+      <c r="BI46" s="12">
+        <v>1</v>
+      </c>
+      <c r="BP46" s="13"/>
+    </row>
+    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM47" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO47" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP47" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="14">
+        <v>0</v>
+      </c>
+      <c r="BP47" s="13"/>
+    </row>
+    <row r="48" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM48" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO48" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR48" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS48" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT48" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW48" s="13"/>
+      <c r="AX48" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY48" s="13"/>
+      <c r="AZ48" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA48" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB48" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC48" s="13"/>
+      <c r="BD48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP48" s="13"/>
+    </row>
+    <row r="49" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49">
+        <v>0.81999</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>-0.44748321391624352</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0.26138472766841492</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AL49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AN49" s="51">
+        <v>0.99</v>
+      </c>
+      <c r="AO49" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AP49" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AQ49" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AR49" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="AS49" s="48">
+        <v>-0.6</v>
+      </c>
+      <c r="AT49" s="48">
+        <v>-0.8</v>
+      </c>
+      <c r="AW49" s="13"/>
+      <c r="AX49" s="42" t="e" cm="1">
+        <f t="array" ref="AX49:AX54">BB57:BB62-MMULT(BD41:BI46,MMULT(S49:AI54,BH19:BH35))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY49" s="13"/>
+      <c r="AZ49" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="BA49" s="48">
+        <v>0.99</v>
+      </c>
+      <c r="BB49" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="BC49" s="13"/>
+      <c r="BD49" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE49" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF49" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG49" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH49" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI49" s="12">
+        <v>0</v>
+      </c>
+      <c r="BO49" s="13"/>
+      <c r="BP49" s="13"/>
+    </row>
+    <row r="50" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AL50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AN50" s="51">
+        <v>0.99</v>
+      </c>
+      <c r="AO50" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AP50" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AQ50" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AR50" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="AS50" s="48">
+        <v>-0.6</v>
+      </c>
+      <c r="AT50" s="48">
+        <v>-0.8</v>
+      </c>
+      <c r="AW50" s="13"/>
+      <c r="AX50" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY50" s="13"/>
+      <c r="AZ50" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="BA50" s="48">
+        <v>0.99</v>
+      </c>
+      <c r="BB50" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="BC50" s="13"/>
+      <c r="BD50" s="12">
+        <f>BD49*$BB$41</f>
+        <v>0.9</v>
+      </c>
+      <c r="BE50" s="12">
+        <v>1</v>
+      </c>
+      <c r="BF50" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG50" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH50" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI50" s="12">
+        <v>0</v>
+      </c>
+      <c r="BO50" s="13"/>
+      <c r="BP50" s="13"/>
+    </row>
+    <row r="51" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AL51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AN51" s="51">
+        <v>0.99</v>
+      </c>
+      <c r="AO51" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AP51" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AQ51" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AR51" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="AS51" s="48">
+        <v>-0.6</v>
+      </c>
+      <c r="AT51" s="48">
+        <v>-0.8</v>
+      </c>
+      <c r="AW51" s="13"/>
+      <c r="AX51" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY51" s="13"/>
+      <c r="AZ51" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="BA51" s="48">
+        <v>0.99</v>
+      </c>
+      <c r="BB51" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="BC51" s="13"/>
+      <c r="BD51" s="12">
+        <f>BD50*$BB$41</f>
+        <v>0.81</v>
+      </c>
+      <c r="BE51" s="12">
+        <f>BE50*$BB$41</f>
+        <v>0.9</v>
+      </c>
+      <c r="BF51" s="12">
+        <v>1</v>
+      </c>
+      <c r="BG51" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH51" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI51" s="12">
+        <v>0</v>
+      </c>
+      <c r="BO51" s="13"/>
+      <c r="BP51" s="13"/>
+    </row>
+    <row r="52" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" cm="1">
+        <f t="array" ref="S52:Z52">MMULT(S49:AI49,TRANSPOSE(S10:AI17))</f>
+        <v>-4.4748321391624357E-3</v>
+      </c>
+      <c r="T52">
+        <v>2.6138472766841492E-6</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AL52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AN52" s="51">
+        <v>0.99</v>
+      </c>
+      <c r="AO52" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AP52" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AQ52" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AR52" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="AS52" s="48">
+        <v>-0.6</v>
+      </c>
+      <c r="AT52" s="48">
+        <v>-0.8</v>
+      </c>
+      <c r="AW52" s="13"/>
+      <c r="AX52" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY52" s="13"/>
+      <c r="AZ52" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="BA52" s="48">
+        <v>0.99</v>
+      </c>
+      <c r="BB52" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="BC52" s="13"/>
+      <c r="BD52" s="12">
+        <f>BD51*$BB$41</f>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="BE52" s="12">
+        <f>BE51*$BB$41</f>
+        <v>0.81</v>
+      </c>
+      <c r="BF52" s="12">
+        <f>BF51*$BB$41</f>
+        <v>0.9</v>
+      </c>
+      <c r="BG52" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH52" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI52" s="12">
+        <v>0</v>
+      </c>
+      <c r="BO52" s="13"/>
+      <c r="BP52" s="11"/>
+    </row>
+    <row r="53" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AL53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AN53" s="51">
+        <v>0.99</v>
+      </c>
+      <c r="AO53" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AP53" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AQ53" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AR53" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="AS53" s="48">
+        <v>-0.6</v>
+      </c>
+      <c r="AT53" s="48">
+        <v>-0.8</v>
+      </c>
+      <c r="AW53" s="13"/>
+      <c r="AX53" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY53" s="13"/>
+      <c r="AZ53" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="BA53" s="48">
+        <v>0.99</v>
+      </c>
+      <c r="BB53" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="BC53" s="13"/>
+      <c r="BD53" s="12">
+        <f>BD52*$BB$41</f>
+        <v>0.65610000000000013</v>
+      </c>
+      <c r="BE53" s="12">
+        <f>BE52*$BB$41</f>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="BF53" s="12">
+        <f>BF52*$BB$41</f>
+        <v>0.81</v>
+      </c>
+      <c r="BG53" s="12">
+        <f>BG52*$BB$41</f>
+        <v>0.9</v>
+      </c>
+      <c r="BH53" s="12">
+        <v>1</v>
+      </c>
+      <c r="BI53" s="12">
+        <v>0</v>
+      </c>
+      <c r="BO53" s="13"/>
+    </row>
+    <row r="54" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="AL54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="AN54" s="51">
+        <v>0.99</v>
+      </c>
+      <c r="AO54" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AP54" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AQ54" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="AR54" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="AS54" s="48">
+        <v>-0.6</v>
+      </c>
+      <c r="AT54" s="48">
+        <v>-0.8</v>
+      </c>
+      <c r="AW54" s="13"/>
+      <c r="AX54" s="43" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY54" s="13"/>
+      <c r="AZ54" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="BA54" s="48">
+        <v>0.99</v>
+      </c>
+      <c r="BB54" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="BC54" s="13"/>
+      <c r="BD54" s="12">
+        <f>BD53*$BB$41</f>
+        <v>0.59049000000000018</v>
+      </c>
+      <c r="BE54" s="12">
+        <f>BE53*$BB$41</f>
+        <v>0.65610000000000013</v>
+      </c>
+      <c r="BF54" s="12">
+        <f>BF53*$BB$41</f>
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="BG54" s="12">
+        <f>BG53*$BB$41</f>
+        <v>0.81</v>
+      </c>
+      <c r="BH54" s="12">
+        <f>BH53*$BB$41</f>
+        <v>0.9</v>
+      </c>
+      <c r="BI54" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO54" s="13"/>
+      <c r="BP54" s="11"/>
+    </row>
+    <row r="55" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="AJ55" s="13"/>
+      <c r="AQ55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="48">
+        <v>-0.6</v>
+      </c>
+      <c r="AT55" s="48">
+        <v>-0.8</v>
+      </c>
+      <c r="BO55" s="13"/>
+      <c r="BP55" s="36"/>
+    </row>
+    <row r="56" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="S56" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="13"/>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="13"/>
+      <c r="AI56" s="13"/>
+      <c r="AK56" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM56" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ56" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR56" s="23"/>
+      <c r="AS56" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT56" s="23"/>
+      <c r="AZ56" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA56" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB56" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="33" cm="1">
+        <f t="array" ref="S57:AI57">MMULT(S49:AI49,_xlfn.MUNIT(17)*S37:AI37)</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="33">
+        <v>0</v>
+      </c>
+      <c r="U57" s="33">
+        <v>0</v>
+      </c>
+      <c r="V57" s="33">
+        <v>0</v>
+      </c>
+      <c r="W57" s="33">
+        <v>0</v>
+      </c>
+      <c r="X57" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="33" cm="1">
+        <f t="array" ref="AK57:AL62">AK49:AL54*$AW$87:$AX$87</f>
+        <v>1.8</v>
+      </c>
+      <c r="AL57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="33" cm="1">
+        <f t="array" ref="AM57:AN62">AM49:AN54*$AW$87:$AX$87</f>
+        <v>16.2</v>
+      </c>
+      <c r="AN57" s="33">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="AO57" s="33" cm="1">
+        <f t="array" ref="AO57:AP62">AO49:AP54*$AW$87:$AX$87</f>
+        <v>9</v>
+      </c>
+      <c r="AP57" s="33">
+        <v>3.4833333333333334</v>
+      </c>
+      <c r="AQ57" s="33" cm="1">
+        <f t="array" ref="AQ57:AR63">AQ49:AR55*$AW$87:$AX$87</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AR57" s="33">
+        <v>5.5733333333333341</v>
+      </c>
+      <c r="AS57" s="33" cm="1">
+        <f t="array" ref="AS57:AT63">AS49:AT55*$AW$87:$AX$87</f>
+        <v>-10.799999999999999</v>
+      </c>
+      <c r="AT57" s="33">
+        <v>-5.5733333333333341</v>
+      </c>
+      <c r="AZ57" s="33" cm="1">
+        <f t="array" ref="AZ57:BB62">AZ49:BB54*AU87</f>
+        <v>5</v>
+      </c>
+      <c r="BA57" s="33">
+        <v>99</v>
+      </c>
+      <c r="BB57" s="33">
+        <v>50</v>
+      </c>
+      <c r="BP57" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="33"/>
+      <c r="AH58" s="33"/>
+      <c r="AI58" s="33"/>
+      <c r="AK58" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="AL58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="33">
+        <v>16.2</v>
+      </c>
+      <c r="AN58" s="33">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="AO58" s="33">
+        <v>9</v>
+      </c>
+      <c r="AP58" s="33">
+        <v>3.4833333333333334</v>
+      </c>
+      <c r="AQ58" s="33">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AR58" s="33">
+        <v>5.5733333333333341</v>
+      </c>
+      <c r="AS58" s="33">
+        <v>-10.799999999999999</v>
+      </c>
+      <c r="AT58" s="33">
+        <v>-5.5733333333333341</v>
+      </c>
+      <c r="AZ58" s="33">
+        <v>5</v>
+      </c>
+      <c r="BA58" s="33">
+        <v>99</v>
+      </c>
+      <c r="BB58" s="33">
+        <v>50</v>
+      </c>
+      <c r="BG58" s="13"/>
+      <c r="BH58" s="13"/>
+      <c r="BP58" s="36" cm="1">
+        <f t="array" ref="BP58:BV59">TRANSPOSE(_xlfn.ANCHORARRAY(W73)-W49:X55)</f>
+        <v>6</v>
+      </c>
+      <c r="BQ58">
+        <v>6</v>
+      </c>
+      <c r="BR58">
+        <v>6</v>
+      </c>
+      <c r="BS58">
+        <v>0</v>
+      </c>
+      <c r="BT58">
+        <v>0</v>
+      </c>
+      <c r="BU58">
+        <v>0</v>
+      </c>
+      <c r="BV58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="33"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="33"/>
+      <c r="AG59" s="33"/>
+      <c r="AH59" s="33"/>
+      <c r="AI59" s="33"/>
+      <c r="AK59" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="AL59" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="33">
+        <v>16.2</v>
+      </c>
+      <c r="AN59" s="33">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="AO59" s="33">
+        <v>9</v>
+      </c>
+      <c r="AP59" s="33">
+        <v>3.4833333333333334</v>
+      </c>
+      <c r="AQ59" s="33">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AR59" s="33">
+        <v>5.5733333333333341</v>
+      </c>
+      <c r="AS59" s="33">
+        <v>-10.799999999999999</v>
+      </c>
+      <c r="AT59" s="33">
+        <v>-5.5733333333333341</v>
+      </c>
+      <c r="AZ59" s="33">
+        <v>5</v>
+      </c>
+      <c r="BA59" s="33">
+        <v>99</v>
+      </c>
+      <c r="BB59" s="33">
+        <v>50</v>
+      </c>
+      <c r="BH59" s="13"/>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+      <c r="BQ59">
+        <v>0</v>
+      </c>
+      <c r="BR59">
+        <v>0</v>
+      </c>
+      <c r="BS59">
+        <v>6</v>
+      </c>
+      <c r="BT59">
+        <v>6</v>
+      </c>
+      <c r="BU59">
+        <v>6</v>
+      </c>
+      <c r="BV59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
+      <c r="AC60" s="33"/>
+      <c r="AD60" s="33"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="33"/>
+      <c r="AG60" s="33"/>
+      <c r="AH60" s="33"/>
+      <c r="AI60" s="33"/>
+      <c r="AK60" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="AL60" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="33">
+        <v>16.2</v>
+      </c>
+      <c r="AN60" s="33">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="AO60" s="33">
+        <v>9</v>
+      </c>
+      <c r="AP60" s="33">
+        <v>3.4833333333333334</v>
+      </c>
+      <c r="AQ60" s="33">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AR60" s="33">
+        <v>5.5733333333333341</v>
+      </c>
+      <c r="AS60" s="33">
+        <v>-10.799999999999999</v>
+      </c>
+      <c r="AT60" s="33">
+        <v>-5.5733333333333341</v>
+      </c>
+      <c r="AZ60" s="33">
+        <v>5</v>
+      </c>
+      <c r="BA60" s="33">
+        <v>99</v>
+      </c>
+      <c r="BB60" s="33">
+        <v>50</v>
+      </c>
+      <c r="BH60" s="13"/>
+    </row>
+    <row r="61" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="33"/>
+      <c r="AG61" s="33"/>
+      <c r="AH61" s="33"/>
+      <c r="AI61" s="33"/>
+      <c r="AK61" s="33">
+        <v>1.8</v>
+      </c>
+      <c r="AL61" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="33">
+        <v>16.2</v>
+      </c>
+      <c r="AN61" s="33">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="AO61" s="33">
+        <v>9</v>
+      </c>
+      <c r="AP61" s="33">
+        <v>3.4833333333333334</v>
+      </c>
+      <c r="AQ61" s="33">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AR61" s="33">
+        <v>5.5733333333333341</v>
+      </c>
+      <c r="AS61" s="33">
+        <v>-10.799999999999999</v>
+      </c>
+      <c r="AT61" s="33">
+        <v>-5.5733333333333341</v>
+      </c>
+      <c r="AZ61" s="33">
+        <v>5</v>
+      </c>
+      <c r="BA61" s="33">
+        <v>99</v>
+      </c>
+      <c r="BB61" s="33">
+        <v>50</v>
+      </c>
+      <c r="BH61" s="13"/>
+    </row>
+    <row r="62" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="10"/>
+      <c r="I62" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>140</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="33"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="33"/>
+      <c r="AI62" s="33"/>
+      <c r="AK62" s="34">
+        <v>1.8</v>
+      </c>
+      <c r="AL62" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="34">
+        <v>16.2</v>
+      </c>
+      <c r="AN62" s="34">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="AO62" s="34">
+        <v>9</v>
+      </c>
+      <c r="AP62" s="34">
+        <v>3.4833333333333334</v>
+      </c>
+      <c r="AQ62" s="34">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AR62" s="34">
+        <v>5.5733333333333341</v>
+      </c>
+      <c r="AS62" s="34">
+        <v>-10.799999999999999</v>
+      </c>
+      <c r="AT62" s="34">
+        <v>-5.5733333333333341</v>
+      </c>
+      <c r="AW62" s="13"/>
+      <c r="AX62" s="13"/>
+      <c r="AZ62" s="33">
+        <v>5</v>
+      </c>
+      <c r="BA62" s="33">
+        <v>99</v>
+      </c>
+      <c r="BB62" s="33">
+        <v>50</v>
+      </c>
+      <c r="BH62" s="13"/>
+      <c r="BO62" s="13"/>
+      <c r="BP62" s="13"/>
+    </row>
+    <row r="63" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="14">
+        <v>190</v>
+      </c>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>-10.799999999999999</v>
+      </c>
+      <c r="AT63">
+        <v>-5.5733333333333341</v>
+      </c>
+      <c r="AW63" s="13"/>
+      <c r="AX63" s="13"/>
+      <c r="BH63" s="13"/>
+      <c r="BO63" s="13"/>
+      <c r="BP63" s="13"/>
+    </row>
+    <row r="64" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="AK64" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH64" s="13"/>
+    </row>
+    <row r="65" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="W65" s="14">
+        <v>1</v>
+      </c>
+      <c r="X65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="33" cm="1">
+        <f t="array" ref="AK65:AV71">MMULT(AK41:AV47,_xlfn.MUNIT(12)*AK87:AV87)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL65" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="AM65" s="34">
+        <v>6</v>
+      </c>
+      <c r="AN65" s="34">
+        <v>100</v>
+      </c>
+      <c r="AO65" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="34">
+        <v>11</v>
+      </c>
+      <c r="AQ65" s="34">
+        <v>58</v>
+      </c>
+      <c r="AR65" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="AS65" s="34">
+        <v>22</v>
+      </c>
+      <c r="AT65" s="34">
+        <v>60</v>
+      </c>
+      <c r="AU65" s="34">
+        <v>199</v>
+      </c>
+      <c r="AV65" s="34">
+        <v>160</v>
+      </c>
+      <c r="BO65" s="13"/>
+      <c r="BP65" s="13"/>
+    </row>
+    <row r="66" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="10"/>
+      <c r="I66" t="s">
+        <v>139</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="W66" s="14">
+        <v>1</v>
+      </c>
+      <c r="X66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="34">
+        <v>1.8</v>
+      </c>
+      <c r="AL66" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="AM66" s="34">
+        <v>6</v>
+      </c>
+      <c r="AN66" s="34">
+        <v>100</v>
+      </c>
+      <c r="AO66" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="34">
+        <v>11</v>
+      </c>
+      <c r="AQ66" s="34">
+        <v>58</v>
+      </c>
+      <c r="AR66" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="34">
+        <v>22</v>
+      </c>
+      <c r="AT66" s="34">
+        <v>60</v>
+      </c>
+      <c r="AU66" s="34">
+        <v>199</v>
+      </c>
+      <c r="AV66" s="34">
+        <v>160</v>
+      </c>
+      <c r="BO66" s="13"/>
+      <c r="BP66" s="13"/>
+    </row>
+    <row r="67" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="12">
+        <v>1</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+      <c r="K67" s="12">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="W67" s="14">
+        <v>1</v>
+      </c>
+      <c r="X67" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="AL67" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="AM67" s="34">
+        <v>6</v>
+      </c>
+      <c r="AN67" s="34">
+        <v>100</v>
+      </c>
+      <c r="AO67" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="34">
+        <v>11</v>
+      </c>
+      <c r="AQ67" s="34">
+        <v>58</v>
+      </c>
+      <c r="AR67" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="AS67" s="34">
+        <v>22</v>
+      </c>
+      <c r="AT67" s="34">
+        <v>60</v>
+      </c>
+      <c r="AU67" s="34">
+        <v>199</v>
+      </c>
+      <c r="AV67" s="34">
+        <v>160</v>
+      </c>
+      <c r="BN67" s="11"/>
+      <c r="BO67" s="13"/>
+      <c r="BP67" s="13"/>
+    </row>
+    <row r="68" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="W68" s="14">
+        <v>0</v>
+      </c>
+      <c r="X68" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK68" s="34">
+        <v>1.8</v>
+      </c>
+      <c r="AL68" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="AM68" s="34">
+        <v>6</v>
+      </c>
+      <c r="AN68" s="34">
+        <v>100</v>
+      </c>
+      <c r="AO68" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="34">
+        <v>11</v>
+      </c>
+      <c r="AQ68" s="34">
+        <v>58</v>
+      </c>
+      <c r="AR68" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="AS68" s="34">
+        <v>22</v>
+      </c>
+      <c r="AT68" s="34">
+        <v>60</v>
+      </c>
+      <c r="AU68" s="34">
+        <v>199</v>
+      </c>
+      <c r="AV68" s="34">
+        <v>160</v>
+      </c>
+      <c r="BO68" s="13"/>
+      <c r="BP68" s="13"/>
+    </row>
+    <row r="69" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="W69" s="14">
+        <v>0</v>
+      </c>
+      <c r="X69" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="34">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="AL69" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="AM69" s="34">
+        <v>6</v>
+      </c>
+      <c r="AN69" s="34">
+        <v>100</v>
+      </c>
+      <c r="AO69" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="34">
+        <v>11</v>
+      </c>
+      <c r="AQ69" s="34">
+        <v>58</v>
+      </c>
+      <c r="AR69" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="34">
+        <v>22</v>
+      </c>
+      <c r="AT69" s="34">
+        <v>60</v>
+      </c>
+      <c r="AU69" s="34">
+        <v>199</v>
+      </c>
+      <c r="AV69" s="34">
+        <v>160</v>
+      </c>
+      <c r="BI69" s="13"/>
+      <c r="BJ69" s="13"/>
+      <c r="BK69" s="13"/>
+      <c r="BM69" s="13"/>
+      <c r="BN69" s="13"/>
+      <c r="BO69" s="13"/>
+      <c r="BP69" s="13"/>
+    </row>
+    <row r="70" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="W70" s="14">
+        <v>0</v>
+      </c>
+      <c r="X70" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="34">
+        <v>1.8</v>
+      </c>
+      <c r="AL70" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="AM70" s="34">
+        <v>6</v>
+      </c>
+      <c r="AN70" s="34">
+        <v>100</v>
+      </c>
+      <c r="AO70" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP70" s="34">
+        <v>11</v>
+      </c>
+      <c r="AQ70" s="34">
+        <v>58</v>
+      </c>
+      <c r="AR70" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="AS70" s="34">
+        <v>22</v>
+      </c>
+      <c r="AT70" s="34">
+        <v>60</v>
+      </c>
+      <c r="AU70" s="34">
+        <v>199</v>
+      </c>
+      <c r="AV70" s="34">
+        <v>160</v>
+      </c>
+      <c r="BI70" s="13"/>
+      <c r="BJ70" s="13"/>
+      <c r="BK70" s="13"/>
+      <c r="BM70" s="13"/>
+      <c r="BN70" s="13"/>
+      <c r="BO70" s="13"/>
+      <c r="BP70" s="13"/>
+    </row>
+    <row r="71" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="W71" s="14">
+        <v>0</v>
+      </c>
+      <c r="X71" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="AM71" s="34">
+        <v>6</v>
+      </c>
+      <c r="AN71" s="34">
+        <v>100</v>
+      </c>
+      <c r="AO71" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="34">
+        <v>11</v>
+      </c>
+      <c r="AQ71" s="34">
+        <v>58</v>
+      </c>
+      <c r="AR71" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="34">
+        <v>0</v>
+      </c>
+      <c r="AT71" s="34">
+        <v>0</v>
+      </c>
+      <c r="AU71" s="34">
+        <v>0</v>
+      </c>
+      <c r="AV71" s="34">
+        <v>0</v>
+      </c>
+      <c r="BI71" s="13"/>
+      <c r="BJ71" s="13"/>
+      <c r="BK71" s="13"/>
+      <c r="BM71" s="13"/>
+      <c r="BN71" s="13"/>
+      <c r="BO71" s="13"/>
+      <c r="BP71" s="13"/>
+    </row>
+    <row r="72" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN72" s="13"/>
+      <c r="BO72" s="13"/>
+      <c r="BP72" s="13"/>
+    </row>
+    <row r="73" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="W73" s="59" cm="1">
+        <f t="array" ref="W73:X79">W65:X71*W87:X87</f>
+        <v>6</v>
+      </c>
+      <c r="X73" s="34">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="40" cm="1">
+        <f t="array" ref="AK73:AX73">MMULT(S49:AI49,AK19:AX35)</f>
+        <v>0.81999</v>
+      </c>
+      <c r="AL73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV73" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="24">
+        <v>-0.44748321391624352</v>
+      </c>
+      <c r="AX73" s="25">
+        <v>0.26138472766841492</v>
+      </c>
+      <c r="BO73" s="13"/>
+      <c r="BP73" s="13"/>
+    </row>
+    <row r="74" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="W74" s="34">
+        <v>6</v>
+      </c>
+      <c r="X74" s="34">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="26"/>
+      <c r="AX74" s="27"/>
+      <c r="BO74" s="13"/>
+      <c r="BP74" s="13"/>
+    </row>
+    <row r="75" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="W75" s="34">
+        <v>6</v>
+      </c>
+      <c r="X75" s="34">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="26"/>
+      <c r="AX75" s="27"/>
+      <c r="BO75" s="13"/>
+      <c r="BP75" s="13"/>
+    </row>
+    <row r="76" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="W76" s="34">
+        <v>0</v>
+      </c>
+      <c r="X76" s="34">
+        <v>6</v>
+      </c>
+      <c r="AK76" s="26"/>
+      <c r="AX76" s="27"/>
+      <c r="BO76" s="13"/>
+      <c r="BP76" s="13"/>
+    </row>
+    <row r="77" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="W77" s="34">
+        <v>0</v>
+      </c>
+      <c r="X77" s="34">
+        <v>6</v>
+      </c>
+      <c r="AK77" s="26"/>
+      <c r="AX77" s="27"/>
+    </row>
+    <row r="78" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="W78" s="34">
+        <v>0</v>
+      </c>
+      <c r="X78" s="34">
+        <v>6</v>
+      </c>
+      <c r="AK78" s="28"/>
+      <c r="AL78" s="7"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+      <c r="AO78" s="7"/>
+      <c r="AP78" s="7"/>
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="7"/>
+      <c r="AS78" s="7"/>
+      <c r="AT78" s="7"/>
+      <c r="AU78" s="7"/>
+      <c r="AV78" s="7"/>
+      <c r="AW78" s="7"/>
+      <c r="AX78" s="29"/>
+    </row>
+    <row r="79" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>6</v>
+      </c>
+      <c r="AK79" s="28"/>
+      <c r="AL79" s="7"/>
+      <c r="AM79" s="7"/>
+      <c r="AN79" s="7"/>
+      <c r="AO79" s="7"/>
+      <c r="AP79" s="7"/>
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="7"/>
+      <c r="AS79" s="7"/>
+      <c r="AT79" s="7"/>
+      <c r="AU79" s="7"/>
+      <c r="AV79" s="7"/>
+      <c r="AW79" s="7"/>
+      <c r="AX79" s="29"/>
+    </row>
+    <row r="80" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="AK80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="65">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
+        <f>1/(1+$J$13)^H81</f>
+        <v>1</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="AK81" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL81" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AM81" s="16">
+        <v>5</v>
+      </c>
+      <c r="AN81" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO81" s="16">
+        <v>3</v>
+      </c>
+      <c r="AP81" s="16">
+        <v>3</v>
+      </c>
+      <c r="AQ81" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR81" s="16">
+        <v>7</v>
+      </c>
+      <c r="AS81" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT81" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU81" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV81" s="16">
+        <v>160</v>
+      </c>
+      <c r="AW81" s="16">
+        <v>3</v>
+      </c>
+      <c r="AX81" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="65">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <f>1/(1+$J$13)^H82</f>
+        <v>0.95923261390887293</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="AK82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="65">
+        <v>2</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
+        <f t="shared" ref="J83:J90" si="0">1/(1+$J$13)^H83</f>
+        <v>0.92012720758644884</v>
+      </c>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="AK83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="22">
+        <v>3.4</v>
+      </c>
+      <c r="AM83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP83" s="22">
+        <v>2</v>
+      </c>
+      <c r="AQ83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AT83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AU83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AV83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW83" s="22">
+        <v>0</v>
+      </c>
+      <c r="AX83" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="65">
+        <v>3</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
+        <f t="shared" si="0"/>
+        <v>0.88261602646182147</v>
+      </c>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="AK84" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="65">
+        <v>4</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84663407814083602</v>
+      </c>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="AK85" s="34" cm="1">
+        <f t="array" ref="AK85:AX85">AK83:AX83*AK81:AX81</f>
+        <v>0</v>
+      </c>
+      <c r="AL85" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="AM85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP85" s="34">
+        <v>6</v>
+      </c>
+      <c r="AQ85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AR85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AT85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AU85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AV85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AW85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AX85" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="65">
+        <v>5</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81211901979936307</v>
+      </c>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK86" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="65">
+        <v>6</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7790110501672548</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="34" cm="1">
+        <f t="array" ref="S87:AI87">MMULT(_xlfn.ANCHORARRAY(AK87),TRANSPOSE(AK19:AX35))</f>
+        <v>9</v>
+      </c>
+      <c r="T87" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="U87" s="34">
+        <v>10.7</v>
+      </c>
+      <c r="V87" s="34">
+        <v>18</v>
+      </c>
+      <c r="W87" s="34">
+        <v>6</v>
+      </c>
+      <c r="X87" s="34">
+        <v>6</v>
+      </c>
+      <c r="Y87" s="34">
+        <v>6.9666666666666668</v>
+      </c>
+      <c r="Z87" s="34">
+        <v>100</v>
+      </c>
+      <c r="AA87" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="34">
+        <v>11</v>
+      </c>
+      <c r="AC87" s="34">
+        <v>58</v>
+      </c>
+      <c r="AD87" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="AE87" s="34">
+        <v>82</v>
+      </c>
+      <c r="AF87" s="34">
+        <v>82</v>
+      </c>
+      <c r="AG87" s="34">
+        <v>100</v>
+      </c>
+      <c r="AH87" s="34">
+        <v>160</v>
+      </c>
+      <c r="AI87" s="34">
+        <v>160</v>
+      </c>
+      <c r="AK87" s="35" cm="1">
+        <f t="array" ref="AK87:AX87">(_xlfn.ANCHORARRAY(AK85)+AK39:AX39)</f>
+        <v>9</v>
+      </c>
+      <c r="AL87" s="35">
+        <v>10.7</v>
+      </c>
+      <c r="AM87" s="35">
+        <v>6</v>
+      </c>
+      <c r="AN87" s="35">
+        <v>100</v>
+      </c>
+      <c r="AO87" s="35">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="35">
+        <v>11</v>
+      </c>
+      <c r="AQ87" s="41">
+        <v>58</v>
+      </c>
+      <c r="AR87" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="AS87" s="35">
+        <v>22</v>
+      </c>
+      <c r="AT87" s="35">
+        <v>60</v>
+      </c>
+      <c r="AU87" s="35">
+        <v>100</v>
+      </c>
+      <c r="AV87" s="35">
+        <v>160</v>
+      </c>
+      <c r="AW87" s="35">
+        <v>18</v>
+      </c>
+      <c r="AX87" s="35">
+        <v>6.9666666666666668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="65">
+        <v>7</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74725280591583187</v>
+      </c>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="AK88" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="65">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
+        <f t="shared" si="0"/>
+        <v>0.71678926226938311</v>
+      </c>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="AK89" s="66">
+        <v>25</v>
+      </c>
+      <c r="AL89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AP89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AR89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AT89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AU89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AV89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AW89" s="66">
+        <v>0</v>
+      </c>
+      <c r="AX89" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="65">
+        <v>9</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
+        <f t="shared" si="0"/>
+        <v>0.68756763766847306</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="AK90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK91" s="66">
+        <v>200</v>
+      </c>
+      <c r="AL91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="66">
+        <v>170</v>
+      </c>
+      <c r="AR91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AS91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AT91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AU91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AV91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AW91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AX91" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AO93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AP93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AS93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AT93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AU93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AV93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AW93" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX93" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK96" s="34" cm="1">
+        <f t="array" ref="AK96:AX96">_xlfn.ANCHORARRAY(AK87)*AK89:AX89+AK91:AX91*AK93:AX93</f>
+        <v>225</v>
+      </c>
+      <c r="AL96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AR96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AT96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AU96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AV96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AW96" s="34">
+        <v>0</v>
+      </c>
+      <c r="AX96" s="34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E1873B-F535-EC4E-9ADC-61FBBDBE59B1}">
   <dimension ref="A1:CX121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/tesi_camilla/case1_home/Concettuale_caso1_casa.xlsx
+++ b/tesi_camilla/case1_home/Concettuale_caso1_casa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/case1_home/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/case1_home_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4619B8D8-7C63-D545-9F7C-1F17150C0795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CFC4D-EDA7-9D48-A2BE-FC5597780B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
+    <workbookView xWindow="-780" yWindow="-18000" windowWidth="32000" windowHeight="18000" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
   </bookViews>
   <sheets>
     <sheet name="home_buccinasco" sheetId="19" r:id="rId1"/>
@@ -937,9 +937,9 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\-#,##0.00;\-"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00000;\-#,##0.00000;\-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000;\-#,##0.00000;\-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1033,12 +1033,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1328,7 +1322,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4863A36B-7B9D-4D44-8E2F-FF44385CC5F2}">
   <dimension ref="A1:CN96"/>
   <sheetViews>
-    <sheetView topLeftCell="AT32" workbookViewId="0">
-      <selection activeCell="BB42" sqref="BB42"/>
+    <sheetView tabSelected="1" topLeftCell="AG3" workbookViewId="0">
+      <selection activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4671,25 +4665,25 @@
       </c>
       <c r="BZ21" s="13"/>
       <c r="CA21" s="20">
-        <v>1.4197499999999863E-2</v>
+        <v>24.014197500000002</v>
       </c>
       <c r="CB21" s="13">
-        <v>1.4000000000000004</v>
+        <v>25.4</v>
       </c>
       <c r="CC21" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CD21" s="13">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="CE21" s="13">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="CF21" s="21">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="CG21">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:85" x14ac:dyDescent="0.2">
@@ -6863,7 +6857,7 @@
         <v>9</v>
       </c>
       <c r="AM39" s="16">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN39" s="60">
         <v>100</v>
@@ -9237,13 +9231,13 @@
       <c r="BL58" s="13"/>
       <c r="CA58" s="36" cm="1">
         <f t="array" ref="CA58:CG59">TRANSPOSE(_xlfn.ANCHORARRAY(W73)-W49:X55)</f>
-        <v>1.4197499999999863E-2</v>
+        <v>15.0141975</v>
       </c>
       <c r="CB58">
-        <v>1.4000000000000004</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="CC58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CD58">
         <v>0</v>
@@ -9366,16 +9360,16 @@
         <v>0</v>
       </c>
       <c r="CD59">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="CE59">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="CF59">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="CG59">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:92" x14ac:dyDescent="0.2">
@@ -9723,7 +9717,7 @@
         <v>-10.7</v>
       </c>
       <c r="CC62">
-        <v>-6</v>
+        <v>-30</v>
       </c>
       <c r="CD62">
         <v>-100</v>
@@ -9866,7 +9860,7 @@
         <v>10.7</v>
       </c>
       <c r="CC63">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="CD63">
         <v>100</v>
@@ -9933,7 +9927,7 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="W65" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X65" s="14">
         <v>0</v>
@@ -9946,7 +9940,7 @@
         <v>10.7</v>
       </c>
       <c r="AM65" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN65" s="34">
         <v>100</v>
@@ -10002,7 +9996,7 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="W66" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X66" s="14">
         <v>0</v>
@@ -10014,7 +10008,7 @@
         <v>10.7</v>
       </c>
       <c r="AM66" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN66" s="34">
         <v>100</v>
@@ -10076,7 +10070,7 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="W67" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X67" s="14">
         <v>0</v>
@@ -10088,7 +10082,7 @@
         <v>10.7</v>
       </c>
       <c r="AM67" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN67" s="34">
         <v>100</v>
@@ -10163,7 +10157,7 @@
         <v>10.7</v>
       </c>
       <c r="AM68" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN68" s="34">
         <v>100</v>
@@ -10237,7 +10231,7 @@
         <v>10.7</v>
       </c>
       <c r="AM69" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN69" s="34">
         <v>100</v>
@@ -10317,7 +10311,7 @@
         <v>10.7</v>
       </c>
       <c r="AM70" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN70" s="34">
         <v>100</v>
@@ -10397,7 +10391,7 @@
         <v>10.7</v>
       </c>
       <c r="AM71" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN71" s="34">
         <v>100</v>
@@ -10498,7 +10492,7 @@
       <c r="R73" s="3"/>
       <c r="W73" s="59" cm="1">
         <f t="array" ref="W73:X79">W65:X71*W87:X87</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X73" s="34">
         <v>0</v>
@@ -10579,7 +10573,7 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="W74" s="34">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X74" s="34">
         <v>0</v>
@@ -10659,7 +10653,7 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="W75" s="34">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X75" s="34">
         <v>0</v>
@@ -10742,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AK76" s="26">
         <v>1.8</v>
@@ -10822,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AK77" s="26">
         <v>2.7</v>
@@ -10894,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AK78" s="28">
         <v>1.8</v>
@@ -10966,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AK79" s="28">
         <v>0</v>
@@ -11362,10 +11356,10 @@
         <v>18</v>
       </c>
       <c r="W87" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X87" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Y87" s="34">
         <v>6.9666666666666668</v>
@@ -11408,7 +11402,7 @@
         <v>10.7</v>
       </c>
       <c r="AM87" s="35">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN87" s="35">
         <v>100</v>
@@ -11722,8 +11716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B8D066-8047-2845-A11F-8A370D599C4E}">
   <dimension ref="A1:BV96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O23" zoomScale="75" workbookViewId="0">
-      <selection activeCell="BA10" sqref="BA10:BB17"/>
+    <sheetView topLeftCell="N20" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AE80" sqref="AE80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13829,7 +13823,7 @@
       </c>
       <c r="BO21" s="13"/>
       <c r="BP21" s="20">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.2">
@@ -15676,7 +15670,7 @@
         <v>9</v>
       </c>
       <c r="AM39" s="16">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN39" s="60">
         <v>100</v>
@@ -17393,13 +17387,13 @@
       <c r="BH58" s="13"/>
       <c r="BP58" s="36" cm="1">
         <f t="array" ref="BP58:BV59">TRANSPOSE(_xlfn.ANCHORARRAY(W73)-W49:X55)</f>
-        <v>6</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="BQ58">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="BR58">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="BS58">
         <v>0</v>
@@ -17488,16 +17482,16 @@
         <v>0</v>
       </c>
       <c r="BS59">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="BT59">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="BU59">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="BV59">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:74" x14ac:dyDescent="0.2">
@@ -17806,7 +17800,8 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="W65" s="14">
-        <v>1</v>
+        <f>3.6/5</f>
+        <v>0.72</v>
       </c>
       <c r="X65" s="14">
         <v>0</v>
@@ -17819,7 +17814,7 @@
         <v>10.7</v>
       </c>
       <c r="AM65" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN65" s="34">
         <v>100</v>
@@ -17875,7 +17870,7 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="W66" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X66" s="14">
         <v>0</v>
@@ -17887,7 +17882,7 @@
         <v>10.7</v>
       </c>
       <c r="AM66" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN66" s="34">
         <v>100</v>
@@ -17949,7 +17944,7 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="W67" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X67" s="14">
         <v>0</v>
@@ -17961,7 +17956,7 @@
         <v>10.7</v>
       </c>
       <c r="AM67" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN67" s="34">
         <v>100</v>
@@ -18030,7 +18025,7 @@
         <v>10.7</v>
       </c>
       <c r="AM68" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN68" s="34">
         <v>100</v>
@@ -18098,7 +18093,7 @@
         <v>10.7</v>
       </c>
       <c r="AM69" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN69" s="34">
         <v>100</v>
@@ -18171,7 +18166,7 @@
         <v>10.7</v>
       </c>
       <c r="AM70" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN70" s="34">
         <v>100</v>
@@ -18244,7 +18239,7 @@
         <v>10.7</v>
       </c>
       <c r="AM71" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN71" s="34">
         <v>100</v>
@@ -18332,7 +18327,7 @@
       <c r="R73" s="3"/>
       <c r="W73" s="59" cm="1">
         <f t="array" ref="W73:X79">W65:X71*W87:X87</f>
-        <v>6</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="X73" s="34">
         <v>0</v>
@@ -18407,7 +18402,7 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="W74" s="34">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X74" s="34">
         <v>0</v>
@@ -18441,7 +18436,7 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="W75" s="34">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X75" s="34">
         <v>0</v>
@@ -18478,7 +18473,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AK76" s="26"/>
       <c r="AX76" s="27"/>
@@ -18512,7 +18507,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AK77" s="26"/>
       <c r="AX77" s="27"/>
@@ -18544,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AK78" s="28"/>
       <c r="AL78" s="7"/>
@@ -18588,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AK79" s="28"/>
       <c r="AL79" s="7"/>
@@ -18956,10 +18951,10 @@
         <v>18</v>
       </c>
       <c r="W87" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X87" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Y87" s="34">
         <v>6.9666666666666668</v>
@@ -19002,7 +18997,7 @@
         <v>10.7</v>
       </c>
       <c r="AM87" s="35">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AN87" s="35">
         <v>100</v>

--- a/tesi_camilla/case1_home/Concettuale_caso1_casa.xlsx
+++ b/tesi_camilla/case1_home/Concettuale_caso1_casa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/case1_home/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45962381-73AC-B64D-96AC-12832B2618EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C6647-8FA0-3748-B379-747C5537FB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="-17500" windowWidth="32000" windowHeight="17500" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
   </bookViews>
   <sheets>
     <sheet name="new_limit" sheetId="23" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00;\-#,##0.00;\-"/>
     <numFmt numFmtId="167" formatCode="#,##0.00000;\-#,##0.00000;\-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1153,12 +1153,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1838,11 +1832,11 @@
   <dimension ref="A1:CN96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F6" zoomScale="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BU48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AK26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
       <selection pane="topRight" activeCell="I6" sqref="I6"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
-      <selection pane="bottomRight" activeCell="CB67" sqref="CB67"/>
+      <selection pane="bottomRight" activeCell="AO36" sqref="AO36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5985,22 +5979,22 @@
       <c r="BR29" s="6"/>
       <c r="BZ29" s="13"/>
       <c r="CA29" s="20">
-        <v>184.6</v>
+        <v>164.7</v>
       </c>
       <c r="CB29" s="13">
-        <v>199</v>
+        <v>179.1</v>
       </c>
       <c r="CC29" s="13">
-        <v>184.6</v>
+        <v>164.7</v>
       </c>
       <c r="CD29" s="13">
-        <v>181.16</v>
+        <v>161.26</v>
       </c>
       <c r="CE29" s="13">
-        <v>181.16</v>
+        <v>161.26</v>
       </c>
       <c r="CF29" s="21">
-        <v>190.36</v>
+        <v>170.45999999999998</v>
       </c>
       <c r="CG29">
         <v>0</v>
@@ -7030,7 +7024,7 @@
         <v>60</v>
       </c>
       <c r="AU39" s="16">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AV39" s="16">
         <v>160</v>
@@ -8154,7 +8148,7 @@
       <c r="AW49" s="13"/>
       <c r="AX49" s="42" cm="1">
         <f t="array" ref="AX49:AX54">BB57:BB62-MMULT(BH41:BM46,MMULT(S49:AI54,BL19:BL35))</f>
-        <v>39.1</v>
+        <v>34.1</v>
       </c>
       <c r="AY49" s="13"/>
       <c r="AZ49" s="48">
@@ -8312,7 +8306,7 @@
       </c>
       <c r="AW50" s="13"/>
       <c r="AX50" s="43">
-        <v>39.1</v>
+        <v>34.1</v>
       </c>
       <c r="AY50" s="13"/>
       <c r="AZ50" s="48">
@@ -8485,7 +8479,7 @@
       </c>
       <c r="AW51" s="13"/>
       <c r="AX51" s="43">
-        <v>28.2</v>
+        <v>23.2</v>
       </c>
       <c r="AY51" s="13"/>
       <c r="AZ51" s="48">
@@ -8653,7 +8647,7 @@
       </c>
       <c r="AW52" s="13"/>
       <c r="AX52" s="43">
-        <v>27.979999999999997</v>
+        <v>22.979999999999997</v>
       </c>
       <c r="AY52" s="13"/>
       <c r="AZ52" s="48">
@@ -8803,7 +8797,7 @@
       </c>
       <c r="AW53" s="13"/>
       <c r="AX53" s="43">
-        <v>10.14</v>
+        <v>5.1400000000000006</v>
       </c>
       <c r="AY53" s="13"/>
       <c r="AZ53" s="48">
@@ -8845,22 +8839,22 @@
       <c r="BZ53" s="13"/>
       <c r="CA53" cm="1">
         <f t="array" ref="CA53:CF53">TRANSPOSE(BA57:BA62-_xlfn.ANCHORARRAY(AX49))</f>
-        <v>59.9</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="CB53">
-        <v>59.9</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="CC53">
-        <v>70.8</v>
+        <v>65.899999999999991</v>
       </c>
       <c r="CD53">
-        <v>71.02000000000001</v>
+        <v>66.12</v>
       </c>
       <c r="CE53">
-        <v>88.86</v>
+        <v>83.96</v>
       </c>
       <c r="CF53">
-        <v>94</v>
+        <v>89.1</v>
       </c>
     </row>
     <row r="54" spans="1:92" x14ac:dyDescent="0.2">
@@ -8970,7 +8964,7 @@
       </c>
       <c r="AW54" s="13"/>
       <c r="AX54" s="43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="13"/>
       <c r="AZ54" s="48">
@@ -9105,22 +9099,22 @@
       <c r="BZ55" s="13"/>
       <c r="CA55" s="36" cm="1">
         <f t="array" ref="CA55:CF55">TRANSPOSE(_xlfn.ANCHORARRAY(AX49)-AZ57:AZ62)</f>
-        <v>34.1</v>
+        <v>29.6</v>
       </c>
       <c r="CB55">
-        <v>34.1</v>
+        <v>29.6</v>
       </c>
       <c r="CC55">
-        <v>23.2</v>
+        <v>18.7</v>
       </c>
       <c r="CD55">
-        <v>22.979999999999997</v>
+        <v>18.479999999999997</v>
       </c>
       <c r="CE55">
-        <v>5.1400000000000006</v>
+        <v>0.64000000000000057</v>
       </c>
       <c r="CF55">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.2">
@@ -9267,13 +9261,13 @@
       </c>
       <c r="AZ57" s="33" cm="1">
         <f t="array" ref="AZ57:BB62">AZ49:BB54*AU87</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BA57" s="33">
-        <v>99</v>
+        <v>89.1</v>
       </c>
       <c r="BB57" s="33">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="CA57" s="11" t="s">
         <v>150</v>
@@ -9368,13 +9362,13 @@
         <v>-5.5733333333333341</v>
       </c>
       <c r="AZ58" s="33">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BA58" s="33">
-        <v>99</v>
+        <v>89.1</v>
       </c>
       <c r="BB58" s="33">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BK58" s="13"/>
       <c r="BL58" s="13"/>
@@ -9490,13 +9484,13 @@
         <v>-5.5733333333333341</v>
       </c>
       <c r="AZ59" s="33">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BA59" s="33">
-        <v>99</v>
+        <v>89.1</v>
       </c>
       <c r="BB59" s="33">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BL59" s="13"/>
       <c r="CA59">
@@ -9610,13 +9604,13 @@
         <v>-5.5733333333333341</v>
       </c>
       <c r="AZ60" s="33">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BA60" s="33">
-        <v>99</v>
+        <v>89.1</v>
       </c>
       <c r="BB60" s="33">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BL60" s="13"/>
     </row>
@@ -9720,13 +9714,13 @@
         <v>-5.5733333333333341</v>
       </c>
       <c r="AZ61" s="33">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BA61" s="33">
-        <v>99</v>
+        <v>89.1</v>
       </c>
       <c r="BB61" s="33">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BL61" s="13"/>
       <c r="CA61" t="s">
@@ -9846,13 +9840,13 @@
       <c r="AW62" s="13"/>
       <c r="AX62" s="13"/>
       <c r="AZ62" s="33">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BA62" s="33">
-        <v>99</v>
+        <v>89.1</v>
       </c>
       <c r="BB62" s="33">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BL62" s="13"/>
       <c r="BZ62" s="13" t="s">
@@ -9890,7 +9884,7 @@
         <v>-60</v>
       </c>
       <c r="CK62">
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="CL62">
         <v>-160</v>
@@ -10033,7 +10027,7 @@
         <v>60</v>
       </c>
       <c r="CK63">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="CL63">
         <v>160</v>
@@ -10113,7 +10107,7 @@
         <v>60</v>
       </c>
       <c r="AU65" s="34">
-        <v>199</v>
+        <v>179.1</v>
       </c>
       <c r="AV65" s="34">
         <v>160</v>
@@ -10186,7 +10180,7 @@
         <v>60</v>
       </c>
       <c r="AU66" s="34">
-        <v>199</v>
+        <v>179.1</v>
       </c>
       <c r="AV66" s="34">
         <v>160</v>
@@ -10267,7 +10261,7 @@
         <v>60</v>
       </c>
       <c r="AU67" s="34">
-        <v>199</v>
+        <v>179.1</v>
       </c>
       <c r="AV67" s="34">
         <v>160</v>
@@ -10342,7 +10336,7 @@
         <v>60</v>
       </c>
       <c r="AU68" s="34">
-        <v>199</v>
+        <v>179.1</v>
       </c>
       <c r="AV68" s="34">
         <v>160</v>
@@ -10416,7 +10410,7 @@
         <v>60</v>
       </c>
       <c r="AU69" s="34">
-        <v>199</v>
+        <v>179.1</v>
       </c>
       <c r="AV69" s="34">
         <v>160</v>
@@ -10496,7 +10490,7 @@
         <v>60</v>
       </c>
       <c r="AU70" s="34">
-        <v>199</v>
+        <v>179.1</v>
       </c>
       <c r="AV70" s="34">
         <v>160</v>
@@ -11206,7 +11200,7 @@
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3">
-        <f>1/(1+$J$16)^H81</f>
+        <f t="shared" ref="J81:J90" si="0">1/(1+$J$16)^H81</f>
         <v>1</v>
       </c>
       <c r="K81" s="3"/>
@@ -11273,7 +11267,7 @@
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3">
-        <f>1/(1+$J$16)^H82</f>
+        <f t="shared" si="0"/>
         <v>0.95923261390887293</v>
       </c>
       <c r="K82" s="3"/>
@@ -11301,7 +11295,7 @@
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3">
-        <f>1/(1+$J$16)^H83</f>
+        <f t="shared" si="0"/>
         <v>0.92012720758644884</v>
       </c>
       <c r="K83" s="3"/>
@@ -11365,7 +11359,7 @@
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3">
-        <f>1/(1+$J$16)^H84</f>
+        <f t="shared" si="0"/>
         <v>0.88261602646182147</v>
       </c>
       <c r="K84" s="3"/>
@@ -11393,7 +11387,7 @@
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3">
-        <f>1/(1+$J$16)^H85</f>
+        <f t="shared" si="0"/>
         <v>0.84663407814083602</v>
       </c>
       <c r="K85" s="3"/>
@@ -11461,7 +11455,7 @@
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3">
-        <f>1/(1+$J$16)^H86</f>
+        <f t="shared" si="0"/>
         <v>0.81211901979936307</v>
       </c>
       <c r="K86" s="3"/>
@@ -11492,7 +11486,7 @@
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3">
-        <f>1/(1+$J$16)^H87</f>
+        <f t="shared" si="0"/>
         <v>0.7790110501672548</v>
       </c>
       <c r="K87" s="3"/>
@@ -11547,7 +11541,7 @@
         <v>82</v>
       </c>
       <c r="AG87" s="34">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AH87" s="34">
         <v>160</v>
@@ -11587,7 +11581,7 @@
         <v>60</v>
       </c>
       <c r="AU87" s="35">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AV87" s="35">
         <v>160</v>
@@ -11612,7 +11606,7 @@
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3">
-        <f>1/(1+$J$16)^H88</f>
+        <f t="shared" si="0"/>
         <v>0.74725280591583187</v>
       </c>
       <c r="K88" s="3"/>
@@ -11640,7 +11634,7 @@
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3">
-        <f>1/(1+$J$16)^H89</f>
+        <f t="shared" si="0"/>
         <v>0.71678926226938311</v>
       </c>
       <c r="K89" s="3"/>
@@ -11707,7 +11701,7 @@
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3">
-        <f>1/(1+$J$16)^H90</f>
+        <f t="shared" si="0"/>
         <v>0.68756763766847306</v>
       </c>
       <c r="K90" s="3"/>
